--- a/TestDataXls/Message.xlsx
+++ b/TestDataXls/Message.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FB732-5BF0-4312-A73D-377E21D46DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="messagesheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,22 +197,22 @@
     <t>Session fri Ball grp</t>
   </si>
   <si>
-    <t>ibaird@baird.net.au</t>
-  </si>
-  <si>
-    <t>Tai chi sess -1</t>
-  </si>
-  <si>
-    <t>Baird</t>
-  </si>
-  <si>
-    <t>tutor40@nkt.com</t>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>srinivas.e@netkathir.com</t>
+  </si>
+  <si>
+    <t>Srinivas E.</t>
+  </si>
+  <si>
+    <t>Clarinet session 4 multi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,7 +303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -398,6 +407,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -433,6 +459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,26 +651,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" customWidth="1"/>
     <col min="8" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -681,20 +724,20 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -713,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -723,20 +766,20 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -755,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -765,20 +808,20 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -797,27 +840,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -836,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -846,20 +889,20 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -878,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -897,7 +940,7 @@
       <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -916,32 +959,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -960,36 +1003,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
+      <c r="D9" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
+      <c r="F9" t="s">
+        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>9</v>
@@ -1004,56 +1047,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="H11" s="2"/>
@@ -1068,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="H12" s="2"/>
@@ -1083,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="H13" s="2"/>
@@ -1098,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="H14" s="2"/>
@@ -1113,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="H15" s="2"/>
@@ -1128,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="H16" s="2"/>
@@ -1137,7 +1180,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="H17" s="2"/>
@@ -1146,7 +1189,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="H18" s="2"/>
@@ -1155,7 +1198,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="H19" s="2"/>
@@ -1164,7 +1207,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="H20" s="2"/>
@@ -1173,7 +1216,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="H21" s="2"/>
@@ -1182,7 +1225,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
@@ -1191,7 +1234,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="H23" s="2"/>
@@ -1200,7 +1243,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
       <c r="H24" s="2"/>
@@ -1209,7 +1252,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
       <c r="H25" s="2"/>
@@ -1218,7 +1261,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
       <c r="H26" s="2"/>
@@ -1227,7 +1270,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="H27" s="2"/>
@@ -1236,7 +1279,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="H28" s="2"/>
@@ -1245,7 +1288,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="H29" s="2"/>
@@ -1254,7 +1297,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
       <c r="H30" s="2"/>
@@ -1263,7 +1306,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="H31" s="2"/>
@@ -1272,7 +1315,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
       <c r="H32" s="2"/>
@@ -1281,7 +1324,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="H33" s="2"/>
@@ -1290,7 +1333,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
       <c r="H34" s="2"/>
@@ -1299,7 +1342,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="H35" s="2"/>
@@ -1308,7 +1351,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="H36" s="2"/>
@@ -1317,7 +1360,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="H37" s="2"/>
@@ -1326,7 +1369,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="H38" s="2"/>
@@ -1335,7 +1378,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
       <c r="H39" s="2"/>
@@ -1344,7 +1387,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
       <c r="H40" s="2"/>
@@ -1353,7 +1396,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
       <c r="H41" s="2"/>
@@ -1362,7 +1405,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
       <c r="H42" s="2"/>
@@ -1371,7 +1414,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
       <c r="H43" s="2"/>
@@ -1380,7 +1423,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
       <c r="H44" s="2"/>
@@ -1389,7 +1432,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
       <c r="H45" s="2"/>
@@ -1398,7 +1441,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
       <c r="H46" s="2"/>
@@ -1407,7 +1450,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
       <c r="H47" s="2"/>
@@ -1416,7 +1459,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
       <c r="H48" s="2"/>
@@ -1425,7 +1468,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
       <c r="H49" s="2"/>
@@ -1434,7 +1477,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D50" s="3"/>
       <c r="E50" s="2"/>
       <c r="H50" s="2"/>
@@ -1443,7 +1486,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
       <c r="H51" s="2"/>
@@ -1452,7 +1495,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
       <c r="H52" s="2"/>
@@ -1461,7 +1504,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
       <c r="H53" s="2"/>
@@ -1470,7 +1513,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
       <c r="H54" s="2"/>
@@ -1479,7 +1522,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
       <c r="H55" s="2"/>
@@ -1488,7 +1531,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
       <c r="H56" s="2"/>
@@ -1497,7 +1540,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D57" s="3"/>
       <c r="E57" s="2"/>
       <c r="H57" s="2"/>
@@ -1506,7 +1549,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D58" s="3"/>
       <c r="E58" s="2"/>
       <c r="H58" s="2"/>
@@ -1515,7 +1558,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D59" s="3"/>
       <c r="E59" s="2"/>
       <c r="H59" s="2"/>
@@ -1524,7 +1567,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
       <c r="H60" s="2"/>
@@ -1533,7 +1576,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
       <c r="H61" s="2"/>
@@ -1542,7 +1585,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
       <c r="H62" s="2"/>
@@ -1551,7 +1594,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
       <c r="H63" s="2"/>
@@ -1560,7 +1603,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
       <c r="H64" s="2"/>
@@ -1569,7 +1612,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
       <c r="H65" s="2"/>
@@ -1578,7 +1621,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D66" s="3"/>
       <c r="E66" s="2"/>
       <c r="H66" s="2"/>
@@ -1587,7 +1630,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
       <c r="H67" s="2"/>
@@ -1596,7 +1639,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
       <c r="H68" s="2"/>
@@ -1605,7 +1648,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
       <c r="H69" s="2"/>
@@ -1614,7 +1657,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
       <c r="H70" s="2"/>
@@ -1623,7 +1666,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
       <c r="H71" s="2"/>
@@ -1632,7 +1675,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
       <c r="H72" s="2"/>
@@ -1641,7 +1684,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
       <c r="H73" s="2"/>
@@ -1650,7 +1693,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
       <c r="H74" s="2"/>
@@ -1659,7 +1702,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
       <c r="H75" s="2"/>
@@ -1668,7 +1711,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
       <c r="H76" s="2"/>
@@ -1677,7 +1720,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
       <c r="H77" s="2"/>
@@ -1686,7 +1729,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
       <c r="H78" s="2"/>
@@ -1695,7 +1738,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
       <c r="H79" s="2"/>
@@ -1704,7 +1747,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D80" s="3"/>
       <c r="E80" s="2"/>
       <c r="H80" s="2"/>
@@ -1713,7 +1756,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D81" s="3"/>
       <c r="E81" s="2"/>
       <c r="H81" s="2"/>
@@ -1722,7 +1765,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
       <c r="H82" s="2"/>
@@ -1731,7 +1774,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D83" s="3"/>
       <c r="E83" s="2"/>
       <c r="H83" s="2"/>
@@ -1740,7 +1783,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D84" s="3"/>
       <c r="E84" s="2"/>
       <c r="H84" s="2"/>
@@ -1751,23 +1794,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="K3:K6" r:id="rId6" display="Admin@123"/>
-    <hyperlink ref="E3:E6" r:id="rId7" display="Test@1234"/>
-    <hyperlink ref="E7" r:id="rId8"/>
-    <hyperlink ref="J7" r:id="rId9"/>
-    <hyperlink ref="K7" r:id="rId10"/>
-    <hyperlink ref="E8" r:id="rId11"/>
-    <hyperlink ref="K8" r:id="rId12"/>
-    <hyperlink ref="J8" r:id="rId13"/>
-    <hyperlink ref="E9" r:id="rId14"/>
-    <hyperlink ref="K9" r:id="rId15"/>
-    <hyperlink ref="J9" r:id="rId16"/>
-    <hyperlink ref="J10" r:id="rId17"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K3:K6" r:id="rId6" display="Admin@123" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E3:E6" r:id="rId7" display="Test@1234" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
